--- a/biology/Zoologie/Chalcides_bottegi/Chalcides_bottegi.xlsx
+++ b/biology/Zoologie/Chalcides_bottegi/Chalcides_bottegi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides bottegi est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides bottegi est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Kenya, en Éthiopie, au Soudan et au Soudan du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Kenya, en Éthiopie, au Soudan et au Soudan du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vittorio Bottego[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Vittorio Bottego.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1898 "1897" : Concluding report on the late Capt. Bottego’s collection of reptiles and batrachians from Somaliland and British East Africa. Annali del Museo Civico di Storia Naturale di Genova, sér. 2, vol. 18, p. 715-723 (texte intégral).</t>
         </is>
